--- a/src/accounting/processed_result_4.xlsx
+++ b/src/accounting/processed_result_4.xlsx
@@ -631,13 +631,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thu tiền khác</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100333)</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -720,10 +724,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Chi tiền khác</t>
@@ -813,13 +821,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Thu tiền khác</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100357)</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -902,13 +914,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>Chuyển khoản thanh toán</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -954,11 +970,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>KHAC</t>
-        </is>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
@@ -998,14 +1010,10 @@
           <t>ĐỊA ĐIỂM KINH DOANH LOTTE KIM MÃ - CHI NHÁNH CÔNG TY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Gian F4-C10, Tòa Nhà Lotte Center Hanoi, 54 Liễu Giai, P. Cống Vị, Q. Ba Đình, TP. Hà Nội</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>Giao dịch Internet Banking</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -1053,7 +1061,7 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>KHAC</t>
+          <t>DICHVU</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
@@ -1095,11 +1103,7 @@
           <t>ĐĐ VINCOM ROYAL CITY - CN CTY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>GH B2-R4-06,TTTM Vincom Mega Mall Royal City Hà Nội,số 72A Nguyễn Trãi,Thượng Đình,Thanh Xuân,Hà Nội</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>Chi tiền khác</t>
@@ -1282,13 +1286,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Thu tiền khác</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100413)</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1374,11 +1382,7 @@
           <t>ĐỊA ĐIỂM KINH DOANH LOTTE KIM MÃ - CHI NHÁNH CÔNG TY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Gian F4-C10, Tòa Nhà Lotte Center Hanoi, 54 Liễu Giai, P. Cống Vị, Q. Ba Đình, TP. Hà Nội</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>Chi tiền khác</t>
@@ -1468,10 +1472,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KHÁCH LẺ</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>NGUYỄN NGỌC KIỀU LY</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Thu tiền khác</t>

--- a/src/accounting/processed_result_4.xlsx
+++ b/src/accounting/processed_result_4.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>03/1/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>KL-GOBARIA1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>Khách Lẻ Không Lấy Hóa Đơn</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>QH 1S9+10 TTTM Go BR-VT, Số 2A, Nguyễn Đình Chiểu, KP 1, P.Phước Hiệp, TP.Bà Rịa, T.Bà Rịa-Vũng Tàu</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ (POS 14100333)</t>
+          <t>Thu tiền bán hàng khách lẻ ĐĐKD GO BÀ RỊA - CÔNG TY TNHH SÁNG TÂM</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03/1/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>KL-GOBARIA1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>Khách Lẻ Không Lấy Hóa Đơn</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>QH 1S9+10 TTTM Go BR-VT, Số 2A, Nguyễn Đình Chiểu, KP 1, P.Phước Hiệp, TP.Bà Rịa, T.Bà Rịa-Vũng Tàu</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>Phí cà thẻ ĐĐKD GO BÀ RỊA - CÔNG TY TNHH SÁNG TÂM</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -780,11 +780,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>KHAC</t>
-        </is>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -798,7 +794,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03/1/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -816,22 +812,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>KL-GOCANTHO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>Khách Lẻ Không Lấy Hóa Đơn</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>GH 1S21-B, TTTM Go Cần Thơ, Lô số 1, KDC Hưng Phú 1, P.Hưng Phú, Q.Cái Răng, TP.Cần Thơ, Việt Nam</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ (POS 14100357)</t>
+          <t>Thu tiền bán hàng khách lẻ ĐĐKD GO CẦN THƠ - CÔNG TY TNHH SÁNG TÂM</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -867,7 +863,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -891,7 +887,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>03/1/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -909,22 +905,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>31754</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>Công Ty TNHH Sáng Tâm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>32-34 Đường 74, Phường 10, Quận 6, Tp. Hồ Chí Minh</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Chuyển khoản thanh toán</t>
+          <t>Chuyen tien tu TK BIDV 3840 Sang Tam qua TK BIDV 7655 Sang Tam</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -960,7 +956,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -984,7 +980,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03/4/2025</t>
+          <t>04/03/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1002,18 +998,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>007.DDLTKM</t>
+          <t>70307</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ĐỊA ĐIỂM KINH DOANH LOTTE KIM MÃ - CHI NHÁNH CÔNG TY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>CÔNG TY CỔ PHẦN ĐẦU TƯ &amp; CÔNG NGHIỆP TÂN TẠO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lô 16, Đường 2, KCN Tân Tạo, P. Tân Tạo A, Q. Bình Tân, TP. HCM</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Giao dịch Internet Banking</t>
+          <t>HBK-TKThe :1903311360003, tai Agribank. ND  Cty Sang Tam TT tien dien T02.2025 MKH  ST015 theo TB ngay 26.02.2025 cho Cty Cong Nghiep Tan Tao                                                 -CTLNHIDO000011253674423-1/2-PMT-002</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>4/03/2025</t>
+          <t>04/03/2025</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1059,11 +1059,7 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>DICHVU</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1077,7 +1073,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>03/5/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1095,18 +1091,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DD-VINCOMROYAL</t>
+          <t>04002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ĐĐ VINCOM ROYAL CITY - CN CTY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>CÔNG TY TNHH PHÁT TRIỂN PHÚ MỸ HƯNG</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>801 Nguyễn Văn Linh, P. Tân Phú, Q.7, TP.HCM</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>REF141A2530705CBCJM B/O 1410393840 CTY TNHH SANG TAM F/O 963880036508 CONG TY TNHH PHAT TRIEN PHU MY HUNG NHH79651001 CTY TNHH SANG TAM TT TIEN LAI CHAM THANH TOAN T01 2025 TAI CRM CHO CTY PHU MY HUNG</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>811</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>5/03/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -1152,11 +1152,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>KHAC</t>
-        </is>
-      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1170,7 +1166,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03/5/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1199,7 +1195,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>HBK-TKThe :9906700964, tai Vietcombank. ND  Cty Sang Tam hoan tien don hang LUGTMDT2HSP260200126.02.25 cho Pham Nguyen Phuong Thao                                                            -CTLNHIDO000011263466536-1/2-PMT-002</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -1210,7 +1206,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1235,7 +1231,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>5/03/2025</t>
+          <t>05/03/2025</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1245,11 +1241,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>KHAC</t>
-        </is>
-      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1263,7 +1255,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14/3/2025</t>
+          <t>14/03/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1281,22 +1273,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>KL-LUGAETP</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>Khách Lẻ Không Lấy Hoá Đơn</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>GH S69 TTTM Aeon Tân Phú mở rộng, 30 đường Bờ Bao Tân Thắng, P.Sơn Kỳ, Q.Tân Phú, TP HCM</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ (POS 14100413)</t>
+          <t>Thu tiền bán hàng khách lẻ ĐĐKD LUG.VN AEON TÂN PHÚ - CÔNG TY TNHH SÁNG TÂM</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1332,7 +1324,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>3/14/2025</t>
+          <t>14/03/2025</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1356,7 +1348,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19/3/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1374,18 +1366,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>007.DDLTKM</t>
+          <t>50673-VCTIMESCITY2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ĐỊA ĐIỂM KINH DOANH LOTTE KIM MÃ - CHI NHÁNH CÔNG TY TNHH SÁNG TÂM TẠI HÀ NỘI</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>CÔNG TY TNHH VẬN HÀNH VINCOM RETAIL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tòa nhà VP Symphony, Đường Chu Huy Mân, KĐTST Vinhomes Riverside, P.Phúc Lợi, Q.Long Biên, TP.Hà Nội</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Chi tiền khác</t>
+          <t>Cty Sang Tam TT tien coc thi cong gian hang tai TTTM Vincom Mega Mall Times City Quay TN-28 theo TDNT so: TN-28OTLTTTM-VMMTC cho Cty Van Hanh Vincom Retail</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1396,7 +1392,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1421,7 +1417,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>3/19/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1431,11 +1427,7 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>KHAC</t>
-        </is>
-      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
@@ -1449,7 +1441,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25/3/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1467,22 +1459,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KL</t>
+          <t>50619</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>NGUYỄN NGỌC KIỀU LY</t>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN ĐẦU TƯ VÀ PHÁT TRIỂN VIỆT NAM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2C đường 1C, Phường Bình Trị Đông B, Quận Bình Tân, TP. HCM</t>
+          <t>Tháp BIDV, số 35 Hàng Vôi, Quận Hoàn Kiếm, Hà Nội</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Thu tiền khác</t>
+          <t>Lãi tiền gửi ngân hàng BIDV - Tháp BIDV, số 35 Hàng Vôi, Quận Hoàn Kiếm, Hà Nội</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1498,7 +1490,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1311</t>
+          <t>5154</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1518,7 +1510,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3/25/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>

--- a/src/accounting/processed_result_4.xlsx
+++ b/src/accounting/processed_result_4.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ ĐĐKD GO BÀ RỊA - CÔNG TY TNHH SÁNG TÂM</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100333 - GO BRVT)_5777</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -719,22 +719,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>KL-GOBARIA1</t>
+          <t>50619</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Khách Lẻ Không Lấy Hóa Đơn</t>
+          <t>NGÂN HÀNG THƯƠNG MẠI CỔ PHẦN ĐẦU TƯ VÀ PHÁT TRIỂN VIỆT NAM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>QH 1S9+10 TTTM Go BR-VT, Số 2A, Nguyễn Đình Chiểu, KP 1, P.Phước Hiệp, TP.Bà Rịa, T.Bà Rịa-Vũng Tàu</t>
+          <t>Tháp BIDV, số 35 Hàng Vôi, Quận Hoàn Kiếm, Hà Nội</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Phí cà thẻ ĐĐKD GO BÀ RỊA - CÔNG TY TNHH SÁNG TÂM</t>
+          <t>Phí cà thẻ (POS 14100333 - GO BRVT)_5777</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -827,7 +827,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ ĐĐKD GO CẦN THƠ - CÔNG TY TNHH SÁNG TÂM</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100357 - GO CTHO)_1174</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>KL-LUGAETP</t>
+          <t>41512-LUGAETP</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Khách Lẻ Không Lấy Hoá Đơn</t>
+          <t>Công Ty Aeon Việt Nam</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>GH S69 TTTM Aeon Tân Phú mở rộng, 30 đường Bờ Bao Tân Thắng, P.Sơn Kỳ, Q.Tân Phú, TP HCM</t>
+          <t>Số 30, đường Tân Thắng, Phường Sơn Kỳ, Quận Tân phú, TP Hồ Chí Minh</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Thu tiền bán hàng khách lẻ ĐĐKD LUG.VN AEON TÂN PHÚ - CÔNG TY TNHH SÁNG TÂM</t>
+          <t>Thu tiền bán hàng khách lẻ (POS 14100413 - LUGAETP)_8804</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50673-VCTIMESCITY2</t>
+          <t>50673-VC MGW 138</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
